--- a/grupos/2ASV - Estadisticos 2020.xlsx
+++ b/grupos/2ASV - Estadisticos 2020.xlsx
@@ -2426,6 +2426,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3242,7 +3243,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3666,6 +3668,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/2ASV - Estadisticos 2020.xlsx
+++ b/grupos/2ASV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="112">
   <si>
     <t>Materia</t>
   </si>
@@ -185,6 +185,9 @@
     <t>IBAÑEZ</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
     <t>CHACON</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
     <t>GARCIA</t>
   </si>
   <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
@@ -209,6 +215,9 @@
     <t>LUNA</t>
   </si>
   <si>
+    <t>MAYA</t>
+  </si>
+  <si>
     <t>MOLINA</t>
   </si>
   <si>
@@ -221,9 +230,15 @@
     <t>OCAÑA</t>
   </si>
   <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
@@ -233,6 +248,9 @@
     <t>ESTEVEZ</t>
   </si>
   <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
     <t>LARA</t>
   </si>
   <si>
@@ -242,6 +260,9 @@
     <t>FLORES</t>
   </si>
   <si>
+    <t>SILVERIO</t>
+  </si>
+  <si>
     <t>CARRILLO</t>
   </si>
   <si>
@@ -254,9 +275,15 @@
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
     <t>GUERRA</t>
   </si>
   <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
     <t>TZIZIHUA</t>
   </si>
   <si>
@@ -266,6 +293,9 @@
     <t>EMMANUEL</t>
   </si>
   <si>
+    <t>GUILLERMO SAID</t>
+  </si>
+  <si>
     <t>HUMBERTO</t>
   </si>
   <si>
@@ -281,6 +311,9 @@
     <t>JESUS SAMUEL</t>
   </si>
   <si>
+    <t>ROGELIO</t>
+  </si>
+  <si>
     <t>ARIZBETH</t>
   </si>
   <si>
@@ -293,6 +326,9 @@
     <t>JESUS ANTONIO</t>
   </si>
   <si>
+    <t>FRANCISCO YAEL</t>
+  </si>
+  <si>
     <t>IRVING</t>
   </si>
   <si>
@@ -305,55 +341,19 @@
     <t>OZIEL</t>
   </si>
   <si>
+    <t>MICHELLE ROBERTA</t>
+  </si>
+  <si>
     <t>JAVIER ANTONIO</t>
   </si>
   <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
     <t>JAQUELINE</t>
   </si>
   <si>
     <t>DORA LUZ</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>MAYA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>SILVERIO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>GUILLERMO SAID</t>
-  </si>
-  <si>
-    <t>ROGELIO</t>
-  </si>
-  <si>
-    <t>FRANCISCO YAEL</t>
-  </si>
-  <si>
-    <t>MICHELLE ROBERTA</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -843,7 +843,7 @@
         <v>-1</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -902,7 +902,7 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -934,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -961,7 +961,7 @@
         <v>-1</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -1020,7 +1020,7 @@
         <v>-1</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1079,7 +1079,7 @@
         <v>-1</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1129,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1170,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -1188,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1197,7 +1197,7 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>-1</v>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1256,7 +1256,7 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1315,7 +1315,7 @@
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -1347,7 +1347,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1365,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1374,7 +1374,7 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>-1</v>
@@ -1433,7 +1433,7 @@
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1492,7 +1492,7 @@
         <v>-1</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1524,7 +1524,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -1542,7 +1542,7 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1551,7 +1551,7 @@
         <v>-1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1610,7 +1610,7 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1669,7 +1669,7 @@
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -1719,7 +1719,7 @@
         <v>6</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1728,7 +1728,7 @@
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>-1</v>
@@ -1760,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1778,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1787,7 +1787,7 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -1846,7 +1846,7 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -1878,7 +1878,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1896,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -1905,7 +1905,7 @@
         <v>-1</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L22">
         <v>-1</v>
@@ -1955,7 +1955,7 @@
         <v>7</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1964,7 +1964,7 @@
         <v>-1</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2014,7 +2014,7 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -2023,7 +2023,7 @@
         <v>-1</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
         <v>-1</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2082,7 +2082,7 @@
         <v>-1</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>-1</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
         <v>-1</v>
@@ -2264,25 +2264,25 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>39.13</v>
+        <v>65.22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="H3">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>60.87</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2420,7 +2420,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2458,10 +2458,10 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -2478,90 +2478,90 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920397</v>
+        <v>20330051920317</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920319</v>
+        <v>20330051920317</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920319</v>
+        <v>20330051920317</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920319</v>
+        <v>20330051920397</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -2572,16 +2572,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920319</v>
+        <v>20330051920397</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -2592,36 +2592,36 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920319</v>
+        <v>20330051920397</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920320</v>
+        <v>20330051920397</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -2632,196 +2632,196 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920320</v>
+        <v>20330051920397</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920321</v>
+        <v>20330051920318</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920321</v>
+        <v>20330051920318</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920321</v>
+        <v>20330051920318</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920322</v>
+        <v>20330051920318</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920322</v>
+        <v>20330051920319</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920323</v>
+        <v>20330051920319</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920323</v>
+        <v>20330051920319</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920324</v>
+        <v>20330051920319</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920324</v>
+        <v>20330051920319</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -2832,116 +2832,116 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920325</v>
+        <v>20330051920320</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920325</v>
+        <v>20330051920320</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920395</v>
+        <v>20330051920320</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920395</v>
+        <v>20330051920320</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920395</v>
+        <v>20330051920321</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920395</v>
+        <v>20330051920321</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -2952,16 +2952,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920326</v>
+        <v>20330051920321</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -2972,262 +2972,1502 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920326</v>
+        <v>20330051920321</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920326</v>
+        <v>20330051920321</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920328</v>
+        <v>20330051920322</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920328</v>
+        <v>20330051920322</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920396</v>
+        <v>20330051920322</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920329</v>
+        <v>20330051920322</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920329</v>
+        <v>20330051920323</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920330</v>
+        <v>20330051920323</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920330</v>
+        <v>20330051920323</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920332</v>
+        <v>20330051920323</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920334</v>
+        <v>20330051920380</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920335</v>
+        <v>20330051920380</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920335</v>
+        <v>20330051920380</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>97</v>
       </c>
       <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>20330051920380</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>20330051920324</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>20330051920324</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>20330051920324</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>20330051920324</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
         <v>4</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F45" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>20330051920324</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>20330051920325</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>20330051920325</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>20330051920325</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>20330051920325</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>20330051920395</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>20330051920395</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>20330051920395</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>20330051920395</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>20330051920395</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>20330051920326</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>20330051920326</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>20330051920326</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>20330051920326</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20330051920327</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>20330051920327</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>20330051920327</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>20330051920327</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>20330051920328</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>20330051920328</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>20330051920328</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>20330051920328</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>20330051920328</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>20330051920396</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>20330051920396</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>20330051920396</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>20330051920396</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>20330051920329</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>20330051920329</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>20330051920329</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>20330051920329</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>20330051920330</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>20330051920330</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>20330051920330</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20330051920330</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>20330051920330</v>
+      </c>
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>20330051920331</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>20330051920331</v>
+      </c>
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>20330051920331</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>20330051920331</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>20330051920332</v>
+      </c>
+      <c r="B86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>20330051920332</v>
+      </c>
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>20330051920332</v>
+      </c>
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>20330051920332</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>20330051920333</v>
+      </c>
+      <c r="B90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>20330051920333</v>
+      </c>
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>20330051920333</v>
+      </c>
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>20330051920333</v>
+      </c>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>20330051920334</v>
+      </c>
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>20330051920334</v>
+      </c>
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>20330051920334</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>20330051920334</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>20330051920335</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>20330051920335</v>
+      </c>
+      <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20330051920335</v>
+      </c>
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20330051920335</v>
+      </c>
+      <c r="B101" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20330051920335</v>
+      </c>
+      <c r="B102" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3269,13 +4509,13 @@
         <v>20330051920319</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -3286,13 +4526,13 @@
         <v>20330051920395</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -3303,13 +4543,13 @@
         <v>20330051920321</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3317,33 +4557,33 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920326</v>
+        <v>20330051920317</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920317</v>
+        <v>20330051920324</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3351,16 +4591,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920320</v>
+        <v>20330051920326</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3368,16 +4608,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920322</v>
+        <v>20330051920328</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3385,16 +4625,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920323</v>
+        <v>20330051920330</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3402,16 +4642,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920324</v>
+        <v>20330051920335</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3419,101 +4659,101 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920325</v>
+        <v>20330051920397</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920328</v>
+        <v>20330051920320</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920329</v>
+        <v>20330051920322</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920330</v>
+        <v>20330051920323</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920335</v>
+        <v>20330051920325</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920397</v>
+        <v>20330051920396</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3521,16 +4761,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920396</v>
+        <v>20330051920329</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3538,16 +4778,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920332</v>
+        <v>20330051920334</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3555,33 +4795,33 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920334</v>
+        <v>20330051920318</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920318</v>
+        <v>20330051920380</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3589,16 +4829,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920380</v>
+        <v>20330051920327</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3606,16 +4846,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920327</v>
+        <v>20330051920331</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3623,16 +4863,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920331</v>
+        <v>20330051920332</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3643,13 +4883,13 @@
         <v>20330051920333</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3662,7 +4902,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3695,374 +4935,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920320</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920320</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920322</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920322</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920323</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920323</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920324</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920324</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920329</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920329</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920335</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920335</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920397</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920396</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920332</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920334</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/2ASV - Estadisticos 2020.xlsx
+++ b/grupos/2ASV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="112">
   <si>
     <t>Materia</t>
   </si>
@@ -149,19 +149,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Santiago Hernández Mariana</t>
+  </si>
+  <si>
+    <t>Rodriguez Roman Marisol</t>
+  </si>
+  <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
+    <t>Saucedo Rivalcoba Graciela</t>
+  </si>
+  <si>
     <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Rodriguez Roman Marisol</t>
-  </si>
-  <si>
-    <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
-    <t>Santiago Hernández Mariana</t>
-  </si>
-  <si>
-    <t>Saucedo Rivalcoba Graciela</t>
   </si>
   <si>
     <t>Pesce Bautista Victor Manuel</t>
@@ -840,16 +840,16 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>9</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -881,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -899,16 +899,16 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>6</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -940,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <v>8</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1005,10 +1005,10 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1023,10 +1023,10 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1082,10 +1082,10 @@
         <v>8</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1135,16 +1135,16 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>10</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1176,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -1194,16 +1194,16 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1235,7 +1235,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -1253,16 +1253,16 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1294,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1312,16 +1312,16 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K12">
         <v>9</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1377,10 +1377,10 @@
         <v>10</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1412,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -1430,16 +1430,16 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <v>9</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1498,7 +1498,7 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1530,7 +1530,7 @@
         <v>-1</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>9</v>
@@ -1548,16 +1548,16 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>10</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1607,16 +1607,16 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K17">
         <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1648,7 +1648,7 @@
         <v>-1</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -1666,16 +1666,16 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>9</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1707,7 +1707,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K19">
         <v>10</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1766,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -1784,16 +1784,16 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K20">
         <v>9</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -1843,16 +1843,16 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>8</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -1902,16 +1902,16 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <v>9</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -1961,16 +1961,16 @@
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K23">
         <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2020,16 +2020,16 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K24">
         <v>9</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2061,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -2079,16 +2079,16 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K25">
         <v>10</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>9</v>
@@ -2138,16 +2138,16 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K26">
         <v>10</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -2232,25 +2232,22 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>30.43</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8.6</v>
+        <v>73.91</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>69.56999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2264,25 +2261,25 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>65.22</v>
+        <v>56.52</v>
       </c>
       <c r="G3">
-        <v>4.35</v>
+        <v>13.04</v>
       </c>
       <c r="H3">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>30.43</v>
+        <v>39.13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2296,30 +2293,30 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>69.56999999999999</v>
+        <v>56.52</v>
       </c>
       <c r="G4">
-        <v>26.09</v>
+        <v>43.48</v>
       </c>
       <c r="H4">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -2328,30 +2325,30 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>73.91</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>26.09</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>26.09</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -2363,22 +2360,22 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>82.61</v>
       </c>
       <c r="G6">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>8.699999999999999</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2404,7 +2401,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2420,7 +2417,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2487,144 +2484,144 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920317</v>
+        <v>20330051920397</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920317</v>
+        <v>20330051920397</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920317</v>
+        <v>20330051920318</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920397</v>
+        <v>20330051920319</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920397</v>
+        <v>20330051920319</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920397</v>
+        <v>20330051920319</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920397</v>
+        <v>20330051920320</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
@@ -2632,99 +2629,99 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920397</v>
+        <v>20330051920321</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920318</v>
+        <v>20330051920321</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920318</v>
+        <v>20330051920321</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920318</v>
+        <v>20330051920322</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920318</v>
+        <v>20330051920323</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
@@ -2732,119 +2729,119 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920319</v>
+        <v>20330051920380</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920319</v>
+        <v>20330051920324</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920319</v>
+        <v>20330051920324</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920319</v>
+        <v>20330051920325</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920319</v>
+        <v>20330051920325</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920320</v>
+        <v>20330051920395</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
         <v>47</v>
@@ -2852,119 +2849,119 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920320</v>
+        <v>20330051920395</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920320</v>
+        <v>20330051920395</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920320</v>
+        <v>20330051920395</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920321</v>
+        <v>20330051920326</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920321</v>
+        <v>20330051920327</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920321</v>
+        <v>20330051920328</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>43</v>
@@ -2972,16 +2969,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920321</v>
+        <v>20330051920328</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -2992,159 +2989,159 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920321</v>
+        <v>20330051920396</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920322</v>
+        <v>20330051920329</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920322</v>
+        <v>20330051920330</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920322</v>
+        <v>20330051920330</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920322</v>
+        <v>20330051920331</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920323</v>
+        <v>20330051920332</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920323</v>
+        <v>20330051920333</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920323</v>
+        <v>20330051920334</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
         <v>43</v>
@@ -3152,1322 +3149,42 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920323</v>
+        <v>20330051920335</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920380</v>
+        <v>20330051920335</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>20330051920380</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>20330051920380</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>20330051920380</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>20330051920324</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>20330051920324</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>20330051920324</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>20330051920324</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>20330051920324</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>20330051920325</v>
-      </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20330051920325</v>
-      </c>
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>20330051920325</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>20330051920325</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>20330051920395</v>
-      </c>
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>20330051920395</v>
-      </c>
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>20330051920395</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>20330051920395</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920395</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920326</v>
-      </c>
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920326</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920326</v>
-      </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920326</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920327</v>
-      </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920327</v>
-      </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920327</v>
-      </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920327</v>
-      </c>
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920328</v>
-      </c>
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920328</v>
-      </c>
-      <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920328</v>
-      </c>
-      <c r="B66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920328</v>
-      </c>
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920328</v>
-      </c>
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920396</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920396</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920396</v>
-      </c>
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71" t="s">
-        <v>104</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920396</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920329</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>105</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920329</v>
-      </c>
-      <c r="B74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920329</v>
-      </c>
-      <c r="B75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" t="s">
-        <v>105</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920329</v>
-      </c>
-      <c r="B76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920330</v>
-      </c>
-      <c r="B77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920330</v>
-      </c>
-      <c r="B78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920330</v>
-      </c>
-      <c r="B79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920330</v>
-      </c>
-      <c r="B80" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920330</v>
-      </c>
-      <c r="B81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920331</v>
-      </c>
-      <c r="B82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920331</v>
-      </c>
-      <c r="B83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920331</v>
-      </c>
-      <c r="B84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920331</v>
-      </c>
-      <c r="B85" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920332</v>
-      </c>
-      <c r="B86" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920332</v>
-      </c>
-      <c r="B87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920332</v>
-      </c>
-      <c r="B88" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920332</v>
-      </c>
-      <c r="B89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920333</v>
-      </c>
-      <c r="B90" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920333</v>
-      </c>
-      <c r="B91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920333</v>
-      </c>
-      <c r="B92" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" t="s">
-        <v>109</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920333</v>
-      </c>
-      <c r="B93" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" t="s">
-        <v>87</v>
-      </c>
-      <c r="D93" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920334</v>
-      </c>
-      <c r="B94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920334</v>
-      </c>
-      <c r="B95" t="s">
-        <v>73</v>
-      </c>
-      <c r="C95" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" t="s">
-        <v>110</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920334</v>
-      </c>
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" t="s">
-        <v>110</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920334</v>
-      </c>
-      <c r="B97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" t="s">
-        <v>110</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920335</v>
-      </c>
-      <c r="B98" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" t="s">
-        <v>88</v>
-      </c>
-      <c r="D98" t="s">
-        <v>111</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920335</v>
-      </c>
-      <c r="B99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920335</v>
-      </c>
-      <c r="B100" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" t="s">
-        <v>88</v>
-      </c>
-      <c r="D100" t="s">
-        <v>111</v>
-      </c>
-      <c r="E100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920335</v>
-      </c>
-      <c r="B101" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" t="s">
-        <v>111</v>
-      </c>
-      <c r="E101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920335</v>
-      </c>
-      <c r="B102" t="s">
-        <v>74</v>
-      </c>
-      <c r="C102" t="s">
-        <v>88</v>
-      </c>
-      <c r="D102" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4506,36 +3223,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920319</v>
+        <v>20330051920395</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920395</v>
+        <v>20330051920319</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4574,16 +3291,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920324</v>
+        <v>20330051920397</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4591,16 +3308,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920326</v>
+        <v>20330051920324</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4608,16 +3325,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920328</v>
+        <v>20330051920325</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4625,16 +3342,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920330</v>
+        <v>20330051920328</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4642,16 +3359,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920335</v>
+        <v>20330051920330</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4659,33 +3376,33 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920397</v>
+        <v>20330051920335</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920320</v>
+        <v>20330051920318</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4693,16 +3410,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920322</v>
+        <v>20330051920320</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4710,16 +3427,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920323</v>
+        <v>20330051920322</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4727,16 +3444,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920325</v>
+        <v>20330051920323</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4744,16 +3461,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920396</v>
+        <v>20330051920380</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4761,16 +3478,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920329</v>
+        <v>20330051920326</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4778,16 +3495,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920334</v>
+        <v>20330051920327</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4795,104 +3512,104 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920318</v>
+        <v>20330051920396</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920380</v>
+        <v>20330051920329</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920327</v>
+        <v>20330051920331</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920331</v>
+        <v>20330051920332</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920332</v>
+        <v>20330051920333</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920333</v>
+        <v>20330051920334</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4902,7 +3619,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4932,7 +3649,444 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920322</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920326</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920332</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920332</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920335</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920320</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920380</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920327</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920396</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920329</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920331</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920333</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920334</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2ASV - Estadisticos 2020.xlsx
+++ b/grupos/2ASV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="112">
   <si>
     <t>Materia</t>
   </si>
@@ -185,96 +185,129 @@
     <t>IBAÑEZ</t>
   </si>
   <si>
+    <t>CHACON</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>OCAÑA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>TZIZIHUA</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>HUMBERTO</t>
+  </si>
+  <si>
+    <t>SURISADAY</t>
+  </si>
+  <si>
+    <t>ARIZBETH</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>EVAN AILTON</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>OZIEL</t>
+  </si>
+  <si>
+    <t>DORA LUZ</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
-    <t>CHACON</t>
-  </si>
-  <si>
     <t>CANTELLAN</t>
   </si>
   <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>GAMEZ</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
     <t>LUNA</t>
   </si>
   <si>
     <t>MAYA</t>
   </si>
   <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
     <t>MUÑOZ</t>
   </si>
   <si>
     <t>NAJERA</t>
   </si>
   <si>
-    <t>OCAÑA</t>
-  </si>
-  <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
     <t>HUERTA</t>
   </si>
   <si>
     <t>LARA</t>
   </si>
   <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
     <t>FLORES</t>
   </si>
   <si>
     <t>SILVERIO</t>
   </si>
   <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>MONTALVO</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>CASTILLO</t>
   </si>
   <si>
@@ -284,27 +317,12 @@
     <t>SOLIS</t>
   </si>
   <si>
-    <t>TZIZIHUA</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
     <t>GUILLERMO SAID</t>
   </si>
   <si>
-    <t>HUMBERTO</t>
-  </si>
-  <si>
     <t>DANIELA DEL CARMEN</t>
   </si>
   <si>
-    <t>SURISADAY</t>
-  </si>
-  <si>
     <t>MARCOS</t>
   </si>
   <si>
@@ -314,33 +332,18 @@
     <t>ROGELIO</t>
   </si>
   <si>
-    <t>ARIZBETH</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>EVAN AILTON</t>
-  </si>
-  <si>
     <t>JESUS ANTONIO</t>
   </si>
   <si>
     <t>FRANCISCO YAEL</t>
   </si>
   <si>
-    <t>IRVING</t>
-  </si>
-  <si>
     <t>VICTOR HUGO</t>
   </si>
   <si>
     <t>JUAN GUILLERMO</t>
   </si>
   <si>
-    <t>OZIEL</t>
-  </si>
-  <si>
     <t>MICHELLE ROBERTA</t>
   </si>
   <si>
@@ -351,9 +354,6 @@
   </si>
   <si>
     <t>JAQUELINE</t>
-  </si>
-  <si>
-    <t>DORA LUZ</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -996,7 +996,7 @@
         <v>-1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1055,7 +1055,7 @@
         <v>-1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1250,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1368,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>-1</v>
@@ -1468,7 +1468,7 @@
         <v>-1</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1527,7 +1527,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1545,7 +1545,7 @@
         <v>8</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -1604,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>9</v>
@@ -1645,7 +1645,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>7</v>
@@ -1781,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>7</v>
@@ -1822,7 +1822,7 @@
         <v>-1</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -1958,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>7</v>
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <v>7</v>
@@ -2076,7 +2076,7 @@
         <v>7</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J25">
         <v>7</v>
@@ -2135,7 +2135,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -2232,22 +2232,25 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>47.83</v>
       </c>
       <c r="G2">
-        <v>73.91</v>
+        <v>52.17</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2417,7 +2420,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2455,10 +2458,10 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -2475,10 +2478,10 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -2495,10 +2498,10 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -2515,10 +2518,10 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
         <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -2529,22 +2532,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920318</v>
+        <v>20330051920319</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2552,19 +2555,19 @@
         <v>20330051920319</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2572,53 +2575,53 @@
         <v>20330051920319</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920319</v>
+        <v>20330051920321</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920320</v>
+        <v>20330051920321</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -2632,153 +2635,153 @@
         <v>20330051920321</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920321</v>
+        <v>20330051920324</v>
       </c>
       <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920321</v>
+        <v>20330051920324</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920322</v>
+        <v>20330051920325</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920323</v>
+        <v>20330051920395</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920380</v>
+        <v>20330051920395</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920324</v>
+        <v>20330051920395</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920324</v>
+        <v>20330051920395</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -2789,16 +2792,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920325</v>
+        <v>20330051920328</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -2809,56 +2812,56 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920325</v>
+        <v>20330051920328</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920395</v>
+        <v>20330051920330</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920395</v>
+        <v>20330051920330</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -2869,322 +2872,22 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920395</v>
+        <v>20330051920335</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>20330051920395</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>20330051920326</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>20330051920327</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>20330051920328</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>20330051920328</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>20330051920396</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>20330051920329</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>20330051920330</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>20330051920330</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>20330051920331</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>20330051920332</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>20330051920333</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>20330051920334</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>20330051920335</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>20330051920335</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3226,13 +2929,13 @@
         <v>20330051920395</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3243,13 +2946,13 @@
         <v>20330051920319</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -3260,13 +2963,13 @@
         <v>20330051920321</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3280,10 +2983,10 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -3297,10 +3000,10 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>90</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3311,13 +3014,13 @@
         <v>20330051920324</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3325,16 +3028,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920325</v>
+        <v>20330051920328</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3342,16 +3045,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920328</v>
+        <v>20330051920330</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3359,19 +3062,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920330</v>
+        <v>20330051920325</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3379,16 +3082,16 @@
         <v>20330051920335</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3396,16 +3099,16 @@
         <v>20330051920318</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3413,16 +3116,16 @@
         <v>20330051920320</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3430,16 +3133,16 @@
         <v>20330051920322</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3447,16 +3150,16 @@
         <v>20330051920323</v>
       </c>
       <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3464,16 +3167,16 @@
         <v>20330051920380</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3481,16 +3184,16 @@
         <v>20330051920326</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3498,16 +3201,16 @@
         <v>20330051920327</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3515,16 +3218,16 @@
         <v>20330051920396</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3532,16 +3235,16 @@
         <v>20330051920329</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3549,16 +3252,16 @@
         <v>20330051920331</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3566,16 +3269,16 @@
         <v>20330051920332</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3583,16 +3286,16 @@
         <v>20330051920333</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3600,16 +3303,16 @@
         <v>20330051920334</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3619,7 +3322,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3654,62 +3357,62 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920322</v>
+        <v>20330051920325</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920322</v>
+        <v>20330051920325</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920323</v>
+        <v>20330051920326</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -3718,27 +3421,27 @@
         <v>43</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920323</v>
+        <v>20330051920326</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3746,16 +3449,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920326</v>
+        <v>20330051920332</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -3764,27 +3467,27 @@
         <v>43</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920326</v>
+        <v>20330051920332</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -3792,22 +3495,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920332</v>
+        <v>20330051920335</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -3815,22 +3518,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920332</v>
+        <v>20330051920335</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3838,255 +3541,71 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920335</v>
+        <v>20330051920320</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920335</v>
+        <v>20330051920322</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920318</v>
+        <v>20330051920323</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920320</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920380</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920327</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920396</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920329</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920331</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920333</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920334</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
